--- a/SDG USA Model/usaoutput.xlsx
+++ b/SDG USA Model/usaoutput.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\gamsdir\projdir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG USA Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F0643E-B0F7-413B-9896-7AFA9A728220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E67D2D8-EF3E-40E9-BDF3-C42A119A7148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="11272" windowHeight="7492" activeTab="2" xr2:uid="{ADCA1185-D635-4A1C-9878-2479910602B2}"/>
+    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11235" activeTab="2" xr2:uid="{ADCA1185-D635-4A1C-9878-2479910602B2}"/>
   </bookViews>
   <sheets>
     <sheet name="qpcs" sheetId="1" r:id="rId1"/>
     <sheet name="poptots" sheetId="2" r:id="rId2"/>
     <sheet name="tfrs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -485,9 +483,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,7 +574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,96 +666,96 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>52.637324622658795</v>
+        <v>3.3160863265614821E-2</v>
       </c>
       <c r="C3">
-        <v>60.799263548951757</v>
+        <v>7.2055679344342413E-3</v>
       </c>
       <c r="D3">
-        <v>60.035879035896123</v>
+        <v>24.783628828465101</v>
       </c>
       <c r="E3">
-        <v>59.840559912414427</v>
+        <v>24.436723759512404</v>
       </c>
       <c r="F3">
-        <v>61.120059726484918</v>
+        <v>23.853123346199133</v>
       </c>
       <c r="G3">
-        <v>60.553945600496469</v>
+        <v>22.87618944730465</v>
       </c>
       <c r="H3">
-        <v>60.480117229990618</v>
+        <v>22.0691588666553</v>
       </c>
       <c r="I3">
-        <v>60.374480812743265</v>
+        <v>21.278982930462952</v>
       </c>
       <c r="J3">
-        <v>61.053733565664572</v>
+        <v>20.503518574885792</v>
       </c>
       <c r="K3">
-        <v>61.658518543095141</v>
+        <v>19.495660854534947</v>
       </c>
       <c r="L3">
-        <v>60.711641724357939</v>
+        <v>18.524304406094032</v>
       </c>
       <c r="M3">
-        <v>60.469376647916469</v>
+        <v>17.587934371124174</v>
       </c>
       <c r="N3">
-        <v>60.903279817344085</v>
+        <v>16.79856625473678</v>
       </c>
       <c r="O3">
-        <v>60.555016030190266</v>
+        <v>16.037446820516152</v>
       </c>
       <c r="P3">
-        <v>58.75811982232873</v>
+        <v>15.420539193297174</v>
       </c>
       <c r="Q3">
-        <v>58.458589764487719</v>
+        <v>14.833148740858993</v>
       </c>
       <c r="R3">
-        <v>58.869401970810394</v>
+        <v>14.275633082908154</v>
       </c>
       <c r="S3">
-        <v>59.288578463528495</v>
+        <v>13.64478348384297</v>
       </c>
       <c r="T3">
-        <v>57.628131167040991</v>
+        <v>13.04519922477783</v>
       </c>
       <c r="U3">
-        <v>56.736645524799826</v>
+        <v>12.477607357163503</v>
       </c>
       <c r="V3">
-        <v>56.576956040448103</v>
+        <v>11.94071347255176</v>
       </c>
       <c r="W3">
-        <v>56.446625320370948</v>
+        <v>11.431774727993492</v>
       </c>
       <c r="X3">
-        <v>54.984582371492301</v>
+        <v>10.940457653168236</v>
       </c>
       <c r="Y3">
-        <v>54.856111720500088</v>
+        <v>10.47235787881006</v>
       </c>
       <c r="Z3">
-        <v>53.79853445006578</v>
+        <v>9.8862694696671269</v>
       </c>
       <c r="AA3">
-        <v>51.807787376210669</v>
+        <v>9.3136669486947845</v>
       </c>
       <c r="AB3">
-        <v>50.763309929274257</v>
+        <v>8.7515743393907748</v>
       </c>
       <c r="AC3">
-        <v>48.785172736262368</v>
+        <v>8.3835131349724126</v>
       </c>
       <c r="AD3">
-        <v>48.188295945005635</v>
+        <v>8.0175294140449829</v>
       </c>
     </row>
   </sheetData>
@@ -771,9 +769,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -862,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,88 +871,88 @@
         <v>329.41237467204257</v>
       </c>
       <c r="D2">
-        <v>327.96023036697682</v>
+        <v>327.9607291585225</v>
       </c>
       <c r="E2">
-        <v>326.47780372544861</v>
+        <v>326.47850816312393</v>
       </c>
       <c r="F2">
-        <v>324.94692766673535</v>
+        <v>324.94748738725059</v>
       </c>
       <c r="G2">
-        <v>323.35135697597184</v>
+        <v>323.35191721027951</v>
       </c>
       <c r="H2">
-        <v>321.6968174382456</v>
+        <v>321.69712123146473</v>
       </c>
       <c r="I2">
-        <v>319.97386988094996</v>
+        <v>319.97440748669231</v>
       </c>
       <c r="J2">
-        <v>318.18279392838963</v>
+        <v>318.1838636852242</v>
       </c>
       <c r="K2">
-        <v>316.3223364574182</v>
+        <v>316.32340330668472</v>
       </c>
       <c r="L2">
-        <v>314.38881093911868</v>
+        <v>314.38989408033956</v>
       </c>
       <c r="M2">
-        <v>312.38061231609919</v>
+        <v>312.38169507430638</v>
       </c>
       <c r="N2">
-        <v>310.28977310095235</v>
+        <v>310.29085564087842</v>
       </c>
       <c r="O2">
-        <v>308.11419400921778</v>
+        <v>308.11527653084659</v>
       </c>
       <c r="P2">
-        <v>305.85263606881256</v>
+        <v>305.85380269945551</v>
       </c>
       <c r="Q2">
-        <v>303.49878617126365</v>
+        <v>303.49999287686194</v>
       </c>
       <c r="R2">
-        <v>301.05268113930174</v>
+        <v>301.0542481795386</v>
       </c>
       <c r="S2">
-        <v>298.50967617548042</v>
+        <v>298.51097141646994</v>
       </c>
       <c r="T2">
-        <v>295.86762650627384</v>
+        <v>295.86892288053224</v>
       </c>
       <c r="U2">
-        <v>293.12614087043869</v>
+        <v>293.12743706669545</v>
       </c>
       <c r="V2">
-        <v>290.28161172196099</v>
+        <v>290.28277589431121</v>
       </c>
       <c r="W2">
-        <v>287.33544473314095</v>
+        <v>287.33722947333507</v>
       </c>
       <c r="X2">
-        <v>284.28780394853396</v>
+        <v>284.28958506804616</v>
       </c>
       <c r="Y2">
-        <v>281.14026602137199</v>
+        <v>281.14244513064693</v>
       </c>
       <c r="Z2">
-        <v>277.89422364398706</v>
+        <v>277.89639914115367</v>
       </c>
       <c r="AA2">
-        <v>274.54887504628715</v>
+        <v>274.55104931746502</v>
       </c>
       <c r="AB2">
-        <v>271.11058024957839</v>
+        <v>271.11275401390276</v>
       </c>
       <c r="AC2">
-        <v>267.58326297441528</v>
+        <v>267.58543615617805</v>
       </c>
       <c r="AD2">
-        <v>263.97160904811199</v>
+        <v>263.97378162914174</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -965,85 +963,85 @@
         <v>329.41237467204257</v>
       </c>
       <c r="D3">
-        <v>331.88051723955141</v>
+        <v>331.91762326643249</v>
       </c>
       <c r="E3">
-        <v>334.40118195375044</v>
+        <v>334.54555394105523</v>
       </c>
       <c r="F3">
-        <v>337.00233328470398</v>
+        <v>337.33603708817583</v>
       </c>
       <c r="G3">
-        <v>339.67445103739703</v>
+        <v>340.25269948509094</v>
       </c>
       <c r="H3">
-        <v>342.39925275624034</v>
+        <v>343.25201467364519</v>
       </c>
       <c r="I3">
-        <v>345.21702166471607</v>
+        <v>346.33127850705199</v>
       </c>
       <c r="J3">
-        <v>348.10316836951608</v>
+        <v>349.49258843492021</v>
       </c>
       <c r="K3">
-        <v>350.99580867524924</v>
+        <v>352.69991389817426</v>
       </c>
       <c r="L3">
-        <v>353.8895620931645</v>
+        <v>355.9209350839684</v>
       </c>
       <c r="M3">
-        <v>356.79930331095375</v>
+        <v>359.15542988531359</v>
       </c>
       <c r="N3">
-        <v>359.78498456170166</v>
+        <v>362.37122544898722</v>
       </c>
       <c r="O3">
-        <v>362.7569816519341</v>
+        <v>365.5842723085118</v>
       </c>
       <c r="P3">
-        <v>365.59651912064356</v>
+        <v>368.67521120609308</v>
       </c>
       <c r="Q3">
-        <v>368.2599378797633</v>
+        <v>371.64051068963164</v>
       </c>
       <c r="R3">
-        <v>370.8171152620435</v>
+        <v>374.46124701230633</v>
       </c>
       <c r="S3">
-        <v>373.28919136072074</v>
+        <v>377.14925518505817</v>
       </c>
       <c r="T3">
-        <v>375.60712348735512</v>
+        <v>379.66042940928611</v>
       </c>
       <c r="U3">
-        <v>377.61723178510562</v>
+        <v>381.90514947017459</v>
       </c>
       <c r="V3">
-        <v>379.38142431073612</v>
+        <v>383.88199945058159</v>
       </c>
       <c r="W3">
-        <v>380.88029742574645</v>
+        <v>385.57638340781511</v>
       </c>
       <c r="X3">
-        <v>382.14810245682099</v>
+        <v>386.98179264667539</v>
       </c>
       <c r="Y3">
-        <v>383.14479482987451</v>
+        <v>388.10006480221875</v>
       </c>
       <c r="Z3">
-        <v>383.99448598437374</v>
+        <v>389.00679065960821</v>
       </c>
       <c r="AA3">
-        <v>384.64809460518546</v>
+        <v>389.70681486805688</v>
       </c>
       <c r="AB3">
-        <v>385.10737410020198</v>
+        <v>390.21329542916254</v>
       </c>
       <c r="AC3">
-        <v>385.37001708022592</v>
+        <v>390.49946876967931</v>
       </c>
       <c r="AD3">
-        <v>385.46610923219117</v>
+        <v>390.61386697999529</v>
       </c>
     </row>
   </sheetData>
@@ -1057,9 +1055,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1162,85 +1160,85 @@
         <v>1.7386310920766965</v>
       </c>
       <c r="E2">
-        <v>1.7326434975161813</v>
+        <v>1.736810445935659</v>
       </c>
       <c r="F2">
-        <v>1.7394679370437816</v>
+        <v>1.7434032361965357</v>
       </c>
       <c r="G2">
-        <v>1.7463106835848445</v>
+        <v>1.7501665732723115</v>
       </c>
       <c r="H2">
-        <v>1.7533849465723537</v>
+        <v>1.7571223846202748</v>
       </c>
       <c r="I2">
-        <v>1.7596382371633594</v>
+        <v>1.7632894886286188</v>
       </c>
       <c r="J2">
-        <v>1.7658965055973246</v>
+        <v>1.7695010124491959</v>
       </c>
       <c r="K2">
-        <v>1.7721761209424371</v>
+        <v>1.7759093674728277</v>
       </c>
       <c r="L2">
-        <v>1.7784556472049513</v>
+        <v>1.7823169779637831</v>
       </c>
       <c r="M2">
-        <v>1.7850058156297617</v>
+        <v>1.7892228912239156</v>
       </c>
       <c r="N2">
-        <v>1.7869913580598105</v>
+        <v>1.7920777941962298</v>
       </c>
       <c r="O2">
-        <v>1.8016016695984838</v>
+        <v>1.8016016695984836</v>
       </c>
       <c r="P2">
-        <v>1.803482664659019</v>
+        <v>1.8034826646590187</v>
       </c>
       <c r="Q2">
-        <v>1.8053636597195541</v>
+        <v>1.8053636597195539</v>
       </c>
       <c r="R2">
-        <v>1.7978273887874856</v>
+        <v>1.8011350515831483</v>
       </c>
       <c r="S2">
-        <v>1.7815525407499442</v>
+        <v>1.786242003059368</v>
       </c>
       <c r="T2">
-        <v>1.766201196781475</v>
+        <v>1.7699398093001781</v>
       </c>
       <c r="U2">
-        <v>1.7498990015850577</v>
+        <v>1.7536376141037608</v>
       </c>
       <c r="V2">
-        <v>1.7352959295601407</v>
+        <v>1.7373354189073436</v>
       </c>
       <c r="W2">
-        <v>1.6869753685275237</v>
+        <v>1.7021101136094534</v>
       </c>
       <c r="X2">
-        <v>1.6293513314101378</v>
+        <v>1.6528490961154654</v>
       </c>
       <c r="Y2">
-        <v>1.5713818097876191</v>
+        <v>1.5915581929550278</v>
       </c>
       <c r="Z2">
-        <v>1.5137509687210111</v>
+        <v>1.5340366849660163</v>
       </c>
       <c r="AA2">
-        <v>1.4583952102445965</v>
+        <v>1.4727457762823399</v>
       </c>
       <c r="AB2">
-        <v>1.3708078921938427</v>
+        <v>1.4006361306687767</v>
       </c>
       <c r="AC2">
-        <v>1.2824077757392707</v>
+        <v>1.3288052108154684</v>
       </c>
       <c r="AD2">
-        <v>1.1873787788021568</v>
+        <v>1.2314324917060495</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1248,88 +1246,88 @@
         <v>1.7315820947944578</v>
       </c>
       <c r="C3">
-        <v>1.7316442921798232</v>
+        <v>1.7315651724807068</v>
       </c>
       <c r="D3">
-        <v>1.736598130763352</v>
+        <v>1.7354175299663821</v>
       </c>
       <c r="E3">
-        <v>1.7410589622702501</v>
+        <v>1.7386826290225417</v>
       </c>
       <c r="F3">
-        <v>1.7455197937771485</v>
+        <v>1.7422071276636613</v>
       </c>
       <c r="G3">
-        <v>1.7488864910153969</v>
+        <v>1.7490594240720367</v>
       </c>
       <c r="H3">
-        <v>1.7523880449344693</v>
+        <v>1.7561481753433255</v>
       </c>
       <c r="I3">
-        <v>1.7550590230234295</v>
+        <v>1.7627517140379605</v>
       </c>
       <c r="J3">
-        <v>1.7533721754744664</v>
+        <v>1.7694280346190929</v>
       </c>
       <c r="K3">
-        <v>1.7516853979080029</v>
+        <v>1.7761043552002285</v>
       </c>
       <c r="L3">
-        <v>1.7505169725854666</v>
+        <v>1.7823682450912059</v>
       </c>
       <c r="M3">
-        <v>1.7569150398469564</v>
+        <v>1.7888756324315942</v>
       </c>
       <c r="N3">
-        <v>1.7539427934067746</v>
+        <v>1.7926616125485402</v>
       </c>
       <c r="O3">
-        <v>1.7517908254368011</v>
+        <v>1.7968558037490023</v>
       </c>
       <c r="P3">
-        <v>1.7501606919994912</v>
+        <v>1.8010499949494645</v>
       </c>
       <c r="Q3">
-        <v>1.7551757172418092</v>
+        <v>1.8029309900099999</v>
       </c>
       <c r="R3">
-        <v>1.758760855214982</v>
+        <v>1.804724850884714</v>
       </c>
       <c r="S3">
-        <v>1.7537245535708812</v>
+        <v>1.8037215414764098</v>
       </c>
       <c r="T3">
-        <v>1.7519407340396496</v>
+        <v>1.8031378076105611</v>
       </c>
       <c r="U3">
-        <v>1.7562873069896119</v>
+        <v>1.8025540737447088</v>
       </c>
       <c r="V3">
-        <v>1.7536753024428346</v>
+        <v>1.799592745138284</v>
       </c>
       <c r="W3">
-        <v>1.7530329971459477</v>
+        <v>1.7965765730397862</v>
       </c>
       <c r="X3">
-        <v>1.7588233006044973</v>
+        <v>1.7945407916589886</v>
       </c>
       <c r="Y3">
-        <v>1.7668380728714128</v>
+        <v>1.7923579516705104</v>
       </c>
       <c r="Z3">
-        <v>1.7740321165127462</v>
+        <v>1.7901751116820606</v>
       </c>
       <c r="AA3">
-        <v>1.7774265449644344</v>
+        <v>1.7888256038036161</v>
       </c>
       <c r="AB3">
-        <v>1.7752278286376064</v>
+        <v>1.7874602195868192</v>
       </c>
       <c r="AC3">
-        <v>1.783028755183022</v>
+        <v>1.786717694516426</v>
       </c>
       <c r="AD3">
-        <v>1.789903694022857</v>
+        <v>1.7858817405740814</v>
       </c>
     </row>
   </sheetData>

--- a/SDG USA Model/usaoutput.xlsx
+++ b/SDG USA Model/usaoutput.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG USA Model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5568D0-A8D1-4A62-B897-B21746405966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="11272" windowHeight="7492" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="1536" yWindow="2448" windowWidth="21600" windowHeight="11232" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qpcs" sheetId="1" r:id="rId1"/>
@@ -114,361 +120,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -476,311 +146,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1038,21 +422,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:30">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,91 +528,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>0.0001</v>
+        <v>52.637324622658795</v>
       </c>
       <c r="C2">
-        <v>0.0001</v>
+        <v>51.143270462155648</v>
       </c>
       <c r="D2">
-        <v>0.0001</v>
+        <v>49.5615831046021</v>
       </c>
       <c r="E2">
-        <v>0.0001</v>
+        <v>48.171229600091891</v>
       </c>
       <c r="F2">
-        <v>0.0001</v>
+        <v>47.311482187512212</v>
       </c>
       <c r="G2">
-        <v>0.0001</v>
+        <v>45.823944477834928</v>
       </c>
       <c r="H2">
-        <v>0.0001</v>
+        <v>45.314702910778173</v>
       </c>
       <c r="I2">
-        <v>0.0001</v>
+        <v>44.144999232105228</v>
       </c>
       <c r="J2">
-        <v>0.0001</v>
+        <v>43.005359911339383</v>
       </c>
       <c r="K2">
-        <v>0.0001</v>
+        <v>40.772409033410923</v>
       </c>
       <c r="L2">
-        <v>0.0001</v>
+        <v>38.624518754350611</v>
       </c>
       <c r="M2">
-        <v>0.0001</v>
+        <v>36.555710254432654</v>
       </c>
       <c r="N2">
-        <v>0.0001</v>
+        <v>34.814298281297226</v>
       </c>
       <c r="O2">
-        <v>0.0001</v>
+        <v>33.130797543617554</v>
       </c>
       <c r="P2">
-        <v>0.0001</v>
+        <v>31.754943572535808</v>
       </c>
       <c r="Q2">
-        <v>0.0001</v>
+        <v>30.436156643245813</v>
       </c>
       <c r="R2">
-        <v>0.0001</v>
+        <v>29.175775522627067</v>
       </c>
       <c r="S2">
-        <v>0.0001</v>
+        <v>27.761401618587989</v>
       </c>
       <c r="T2">
-        <v>0.0001</v>
+        <v>26.416011243322526</v>
       </c>
       <c r="U2">
-        <v>0.0001</v>
+        <v>25.146754076050129</v>
       </c>
       <c r="V2">
-        <v>0.0001</v>
+        <v>23.949647605011677</v>
       </c>
       <c r="W2">
-        <v>0.0001</v>
+        <v>22.821654669890936</v>
       </c>
       <c r="X2">
-        <v>0.0001</v>
+        <v>21.736958810994334</v>
       </c>
       <c r="Y2">
-        <v>0.0001</v>
+        <v>20.707133746474899</v>
       </c>
       <c r="Z2">
-        <v>0.0001</v>
+        <v>21.787166324621676</v>
       </c>
       <c r="AA2">
-        <v>0.0001</v>
+        <v>21.794396295172881</v>
       </c>
       <c r="AB2">
-        <v>0.0001</v>
+        <v>20.741585256013231</v>
       </c>
       <c r="AC2">
-        <v>0.0001</v>
+        <v>19.735436373347014</v>
       </c>
       <c r="AD2">
-        <v>0.0001</v>
+        <v>18.761974992521864</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1238,111 +620,107 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.0331608632656148</v>
+        <v>52.637324622658795</v>
       </c>
       <c r="C3">
-        <v>0.00720556793443424</v>
+        <v>60.799263765601573</v>
       </c>
       <c r="D3">
-        <v>24.7836288284651</v>
+        <v>60.035878834850642</v>
       </c>
       <c r="E3">
-        <v>24.4367237595124</v>
+        <v>59.840559813312602</v>
       </c>
       <c r="F3">
-        <v>23.8531233461991</v>
+        <v>60.217705151442644</v>
       </c>
       <c r="G3">
-        <v>22.8761894473047</v>
+        <v>59.657555738326785</v>
       </c>
       <c r="H3">
-        <v>22.0691588666553</v>
+        <v>60.462175410104848</v>
       </c>
       <c r="I3">
-        <v>21.278982930463</v>
+        <v>61.203302005375676</v>
       </c>
       <c r="J3">
-        <v>20.5035185748858</v>
+        <v>61.862722455424993</v>
       </c>
       <c r="K3">
-        <v>19.4956608545349</v>
+        <v>61.658524070586864</v>
       </c>
       <c r="L3">
-        <v>18.524304406094</v>
+        <v>61.43193231264577</v>
       </c>
       <c r="M3">
-        <v>17.5879343711242</v>
+        <v>61.181667500319591</v>
       </c>
       <c r="N3">
-        <v>16.7985662547368</v>
+        <v>60.158663897761137</v>
       </c>
       <c r="O3">
-        <v>16.0374468205162</v>
+        <v>59.118184156379144</v>
       </c>
       <c r="P3">
-        <v>15.4205391932972</v>
+        <v>58.811426685417558</v>
       </c>
       <c r="Q3">
-        <v>14.833148740859</v>
+        <v>59.209264438049203</v>
       </c>
       <c r="R3">
-        <v>14.2756330829082</v>
+        <v>58.204696606681125</v>
       </c>
       <c r="S3">
-        <v>13.644783483843</v>
+        <v>57.240073235925855</v>
       </c>
       <c r="T3">
-        <v>13.0451992247778</v>
+        <v>56.312358029491193</v>
       </c>
       <c r="U3">
-        <v>12.4776073571635</v>
+        <v>56.831726893471576</v>
       </c>
       <c r="V3">
-        <v>11.9407134725518</v>
+        <v>56.702072077133124</v>
       </c>
       <c r="W3">
-        <v>11.4317747279935</v>
+        <v>56.595607041335832</v>
       </c>
       <c r="X3">
-        <v>10.9404576531682</v>
+        <v>56.465571884660157</v>
       </c>
       <c r="Y3">
-        <v>10.4723578788101</v>
+        <v>56.350879269885503</v>
       </c>
       <c r="Z3">
-        <v>9.88626946966713</v>
+        <v>54.991285567296295</v>
       </c>
       <c r="AA3">
-        <v>9.31366694869478</v>
+        <v>53.669142634541707</v>
       </c>
       <c r="AB3">
-        <v>8.75157433939077</v>
+        <v>52.365135183497678</v>
       </c>
       <c r="AC3">
-        <v>8.38351313497241</v>
+        <v>51.078410701880266</v>
       </c>
       <c r="AD3">
-        <v>8.01752941404498</v>
+        <v>49.80107285105543</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:30">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,91 +814,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>326.95376332</v>
+        <v>326.95376331999995</v>
       </c>
       <c r="C2">
-        <v>329.412374672043</v>
+        <v>329.41237467204257</v>
       </c>
       <c r="D2">
-        <v>327.960729158522</v>
+        <v>331.88995418772174</v>
       </c>
       <c r="E2">
-        <v>326.478508163124</v>
+        <v>334.45063061982898</v>
       </c>
       <c r="F2">
-        <v>324.947487387251</v>
+        <v>337.09768277496289</v>
       </c>
       <c r="G2">
-        <v>323.35191721028</v>
+        <v>339.85195348247811</v>
       </c>
       <c r="H2">
-        <v>321.697121231465</v>
+        <v>342.66447598612541</v>
       </c>
       <c r="I2">
-        <v>319.974407486692</v>
+        <v>345.61972283783859</v>
       </c>
       <c r="J2">
-        <v>318.183863685224</v>
+        <v>348.68858223845558</v>
       </c>
       <c r="K2">
-        <v>316.323403306685</v>
+        <v>351.85198315848351</v>
       </c>
       <c r="L2">
-        <v>314.38989408034</v>
+        <v>355.02799886225421</v>
       </c>
       <c r="M2">
-        <v>312.381695074306</v>
+        <v>358.21914870613585</v>
       </c>
       <c r="N2">
-        <v>310.290855640878</v>
+        <v>361.39326757678299</v>
       </c>
       <c r="O2">
-        <v>308.115276530847</v>
+        <v>364.56631494912085</v>
       </c>
       <c r="P2">
-        <v>305.853802699456</v>
+        <v>367.61724630213087</v>
       </c>
       <c r="Q2">
-        <v>303.499992876862</v>
+        <v>370.54263651638382</v>
       </c>
       <c r="R2">
-        <v>301.054248179539</v>
+        <v>373.33305976357343</v>
       </c>
       <c r="S2">
-        <v>298.51097141647</v>
+        <v>376.00010280591221</v>
       </c>
       <c r="T2">
-        <v>295.868922880532</v>
+        <v>378.49938381453399</v>
       </c>
       <c r="U2">
-        <v>293.127437066695</v>
+        <v>380.7312287120082</v>
       </c>
       <c r="V2">
-        <v>290.282775894311</v>
+        <v>382.69469606252619</v>
       </c>
       <c r="W2">
-        <v>287.337229473335</v>
+        <v>384.38434797583841</v>
       </c>
       <c r="X2">
-        <v>284.289585068046</v>
+        <v>385.79338174803286</v>
       </c>
       <c r="Y2">
-        <v>281.142445130647</v>
+        <v>386.92291532611392</v>
       </c>
       <c r="Z2">
-        <v>277.896399141154</v>
+        <v>387.83728231836051</v>
       </c>
       <c r="AA2">
-        <v>274.551049317465</v>
+        <v>388.54150042474288</v>
       </c>
       <c r="AB2">
-        <v>271.112754013903</v>
+        <v>389.04416167252026</v>
       </c>
       <c r="AC2">
-        <v>267.585436156178</v>
+        <v>389.35482693681735</v>
       </c>
       <c r="AD2">
-        <v>263.973781629142</v>
+        <v>389.48691687828676</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1528,111 +906,107 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>326.95376332</v>
+        <v>326.95376331999995</v>
       </c>
       <c r="C3">
-        <v>329.412374672043</v>
+        <v>329.41237467204257</v>
       </c>
       <c r="D3">
-        <v>331.917623266432</v>
+        <v>331.88051723955141</v>
       </c>
       <c r="E3">
-        <v>334.545553941055</v>
+        <v>334.40118195375044</v>
       </c>
       <c r="F3">
-        <v>337.336037088176</v>
+        <v>337.00233328470398</v>
       </c>
       <c r="G3">
-        <v>340.252699485091</v>
+        <v>339.67445103739703</v>
       </c>
       <c r="H3">
-        <v>343.252014673645</v>
+        <v>342.39925275624034</v>
       </c>
       <c r="I3">
-        <v>346.331278507052</v>
+        <v>345.1903422128471</v>
       </c>
       <c r="J3">
-        <v>349.49258843492</v>
+        <v>348.04995535822525</v>
       </c>
       <c r="K3">
-        <v>352.699913898174</v>
+        <v>350.94220401267398</v>
       </c>
       <c r="L3">
-        <v>355.920935083968</v>
+        <v>353.86147007053626</v>
       </c>
       <c r="M3">
-        <v>359.155429885314</v>
+        <v>356.80940272685098</v>
       </c>
       <c r="N3">
-        <v>362.371225448987</v>
+        <v>359.7540917731302</v>
       </c>
       <c r="O3">
-        <v>365.584272308512</v>
+        <v>362.67294660490489</v>
       </c>
       <c r="P3">
-        <v>368.675211206093</v>
+        <v>365.49907186562223</v>
       </c>
       <c r="Q3">
-        <v>371.640510689632</v>
+        <v>368.22821015496442</v>
       </c>
       <c r="R3">
-        <v>374.461247012306</v>
+        <v>370.86311173276107</v>
       </c>
       <c r="S3">
-        <v>377.149255185058</v>
+        <v>373.31119394520329</v>
       </c>
       <c r="T3">
-        <v>379.660429409286</v>
+        <v>375.55414607579871</v>
       </c>
       <c r="U3">
-        <v>381.905149470175</v>
+        <v>377.50015659901584</v>
       </c>
       <c r="V3">
-        <v>383.881999450582</v>
+        <v>379.19901914229979</v>
       </c>
       <c r="W3">
-        <v>385.576383407815</v>
+        <v>380.63262276029093</v>
       </c>
       <c r="X3">
-        <v>386.981792646675</v>
+        <v>381.84585303880169</v>
       </c>
       <c r="Y3">
-        <v>388.100064802219</v>
+        <v>382.83799650434577</v>
       </c>
       <c r="Z3">
-        <v>389.006790659608</v>
+        <v>383.67379606431518</v>
       </c>
       <c r="AA3">
-        <v>389.706814868057</v>
+        <v>384.30624468103264</v>
       </c>
       <c r="AB3">
-        <v>390.213295429163</v>
+        <v>384.74462966952331</v>
       </c>
       <c r="AC3">
-        <v>390.499468769679</v>
+        <v>385.0039632969839</v>
       </c>
       <c r="AD3">
-        <v>390.613866979995</v>
+        <v>385.09570444177677</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:30">
+    <row r="1" spans="1:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,91 +1100,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1.73158209479446</v>
+        <v>1.7315820947944578</v>
       </c>
       <c r="C2">
-        <v>1.73177879566832</v>
+        <v>1.7315651724807068</v>
       </c>
       <c r="D2">
-        <v>1.7386310920767</v>
+        <v>1.7354937111150732</v>
       </c>
       <c r="E2">
-        <v>1.73681044593566</v>
+        <v>1.7398042577410309</v>
       </c>
       <c r="F2">
-        <v>1.74340323619654</v>
+        <v>1.7440146979713207</v>
       </c>
       <c r="G2">
-        <v>1.75016657327231</v>
+        <v>1.7481944448547431</v>
       </c>
       <c r="H2">
-        <v>1.75712238462027</v>
+        <v>1.7506425012714379</v>
       </c>
       <c r="I2">
-        <v>1.76328948862862</v>
+        <v>1.7529760659880218</v>
       </c>
       <c r="J2">
-        <v>1.7695010124492</v>
+        <v>1.7586363592976348</v>
       </c>
       <c r="K2">
-        <v>1.77590936747283</v>
+        <v>1.764926746256384</v>
       </c>
       <c r="L2">
-        <v>1.78231697796378</v>
+        <v>1.7716030668375171</v>
       </c>
       <c r="M2">
-        <v>1.78922289122392</v>
+        <v>1.7785228848680619</v>
       </c>
       <c r="N2">
-        <v>1.79207779419623</v>
+        <v>1.7827212956751628</v>
       </c>
       <c r="O2">
-        <v>1.80160166959848</v>
+        <v>1.786915486875625</v>
       </c>
       <c r="P2">
-        <v>1.80348266465902</v>
+        <v>1.7911575087681446</v>
       </c>
       <c r="Q2">
-        <v>1.80536365971955</v>
+        <v>1.795351699968607</v>
       </c>
       <c r="R2">
-        <v>1.80113505158315</v>
+        <v>1.7994587569832481</v>
       </c>
       <c r="S2">
-        <v>1.78624200305937</v>
+        <v>1.8007686437148711</v>
       </c>
       <c r="T2">
-        <v>1.76993980930018</v>
+        <v>1.8001849098490197</v>
       </c>
       <c r="U2">
-        <v>1.75363761410376</v>
+        <v>1.7998694435366689</v>
       </c>
       <c r="V2">
-        <v>1.73733541890734</v>
+        <v>1.7992857096708175</v>
       </c>
       <c r="W2">
-        <v>1.70211011360945</v>
+        <v>1.7986471323128836</v>
       </c>
       <c r="X2">
-        <v>1.65284909611547</v>
+        <v>1.7989889456726393</v>
       </c>
       <c r="Y2">
-        <v>1.59155819295503</v>
+        <v>1.7968061056841758</v>
       </c>
       <c r="Z2">
-        <v>1.53403668496602</v>
+        <v>1.7948990017274555</v>
       </c>
       <c r="AA2">
-        <v>1.47274577628234</v>
+        <v>1.792716161738992</v>
       </c>
       <c r="AB2">
-        <v>1.40063613066878</v>
+        <v>1.790517445412164</v>
       </c>
       <c r="AC2">
-        <v>1.32880521081547</v>
+        <v>1.7889415882317317</v>
       </c>
       <c r="AD2">
-        <v>1.23143249170605</v>
+        <v>1.788105634289376</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -1818,95 +1192,94 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>1.73158209479446</v>
+        <v>1.7315820947944578</v>
       </c>
       <c r="C3">
-        <v>1.73156517248071</v>
+        <v>1.7316442921798232</v>
       </c>
       <c r="D3">
-        <v>1.73541752996638</v>
+        <v>1.736598130763352</v>
       </c>
       <c r="E3">
-        <v>1.73868262902254</v>
+        <v>1.7410589622702501</v>
       </c>
       <c r="F3">
-        <v>1.74220712766366</v>
+        <v>1.7455197937771485</v>
       </c>
       <c r="G3">
-        <v>1.74905942407204</v>
+        <v>1.7488864910153969</v>
       </c>
       <c r="H3">
-        <v>1.75614817534333</v>
+        <v>1.7523880449344693</v>
       </c>
       <c r="I3">
-        <v>1.76275171403796</v>
+        <v>1.7550590230234295</v>
       </c>
       <c r="J3">
-        <v>1.76942803461909</v>
+        <v>1.7533721754744664</v>
       </c>
       <c r="K3">
-        <v>1.77610435520023</v>
+        <v>1.7516853979080029</v>
       </c>
       <c r="L3">
-        <v>1.78236824509121</v>
+        <v>1.749998691745887</v>
       </c>
       <c r="M3">
-        <v>1.78887563243159</v>
+        <v>1.7497478130538526</v>
       </c>
       <c r="N3">
-        <v>1.79266161254854</v>
+        <v>1.7472938365996626</v>
       </c>
       <c r="O3">
-        <v>1.796855803749</v>
+        <v>1.7523089434071137</v>
       </c>
       <c r="P3">
-        <v>1.80104999494946</v>
+        <v>1.7573240098492189</v>
       </c>
       <c r="Q3">
-        <v>1.80293099001</v>
+        <v>1.7618207710297338</v>
       </c>
       <c r="R3">
-        <v>1.80472485088471</v>
+        <v>1.759585284540202</v>
       </c>
       <c r="S3">
-        <v>1.80372154147641</v>
+        <v>1.754552653314267</v>
       </c>
       <c r="T3">
-        <v>1.80313780761056</v>
+        <v>1.7514261382612262</v>
       </c>
       <c r="U3">
-        <v>1.80255407374471</v>
+        <v>1.7482959592009992</v>
       </c>
       <c r="V3">
-        <v>1.79959274513828</v>
+        <v>1.7456839546542222</v>
       </c>
       <c r="W3">
-        <v>1.79657657303979</v>
+        <v>1.7504901651413298</v>
       </c>
       <c r="X3">
-        <v>1.79454079165899</v>
+        <v>1.7562767082459061</v>
       </c>
       <c r="Y3">
-        <v>1.79235795167051</v>
+        <v>1.7596674489361337</v>
       </c>
       <c r="Z3">
-        <v>1.79017511168206</v>
+        <v>1.7630618981713713</v>
       </c>
       <c r="AA3">
-        <v>1.78882560380362</v>
+        <v>1.7664563266230593</v>
       </c>
       <c r="AB3">
-        <v>1.78746021958682</v>
+        <v>1.7736344282790644</v>
       </c>
       <c r="AC3">
-        <v>1.78671769451643</v>
+        <v>1.7814353548244799</v>
       </c>
       <c r="AD3">
-        <v>1.78588174057408</v>
+        <v>1.7835575306075302</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>